--- a/data/Prematurity Jan 2024/perinatal mortality rate q4s_2019_2023.xlsx
+++ b/data/Prematurity Jan 2024/perinatal mortality rate q4s_2019_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Prematurity Jan 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD31C15-5A20-41E3-A7D7-F3929AE8C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1EC51D-5B03-4A06-AF75-CE8C5A44D581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58B0EE6E-B82B-4C9A-AB2A-F089AC76CBCC}"/>
   </bookViews>
   <sheets>
     <sheet name="data.peri.mort.rate" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Muchinga</t>
   </si>
   <si>
-    <t>North Western</t>
-  </si>
-  <si>
     <t>Northern</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Western</t>
+  </si>
+  <si>
+    <t>North-Western</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -780,7 +780,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>9.4206311822892133</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>7.2585966713102135</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>7.1845003238914087</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>5.8187863674147966</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>21.918630836210781</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
         <v>15.771120621334601</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
         <v>12.949331040782333</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1">
         <v>12.610186092066602</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>14.385880077369439</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1">
         <v>15.590359722520203</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1">
         <v>13.606566407756295</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1">
         <v>11.426509502044745</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1">
         <v>12.056188474726246</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1">
         <v>14.532110091743119</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
         <v>15.703901004383773</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1">
         <v>6.0157334567329936</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
         <v>17.823639774859288</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1">
         <v>18.39568408950208</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1">
         <v>16.510943299628824</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1">
         <v>9.4339622641509422</v>
